--- a/biology/Zoologie/Erynnis/Erynnis.xlsx
+++ b/biology/Zoologie/Erynnis/Erynnis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erynnis est un genre de lépidoptères (papillons) de la famille des Hesperiidae et de la sous-famille des Pyrginae.
 </t>
@@ -511,16 +523,18 @@
           <t>Liste des espèces et distributions géographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Erynnis comporte 24 espèces, présentes en Eurasie ou en Amérique, et sa diversité est maximale en Amérique du Nord[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Erynnis comporte 24 espèces, présentes en Eurasie ou en Amérique, et sa diversité est maximale en Amérique du Nord :
 Erynnis montanus (Bremer, 1861) — en Extrême-Orient.
 Erynnis popoviana (Nordmann, 1851) — en Extrême-Orient.
 Erynnis pathan Evans, 1949 — en Asie centrale.
 Erynnis pelias (Leech, 1891) — en Chine.
 Erynnis tages (Linnaeus, 1758) — le Point-de-Hongrie — répandu en Eurasie.
-Erynnis marloyi (Boisduval, [1834]) — l'Hespérie ottomane — des Balkans au Moyen-Orient.
-Erynnis brizo (Boisduval &amp; Le Conte, [1834]) — en Amérique du Nord.
+Erynnis marloyi (Boisduval, ) — l'Hespérie ottomane — des Balkans au Moyen-Orient.
+Erynnis brizo (Boisduval &amp; Le Conte, ) — en Amérique du Nord.
 Erynnis icelus (Scudder &amp; Burgess, 1870) — en Amérique du Nord.
 Erynnis mercurius (Dyar, 1926) — au Mexique.
 Erynnis afranius (Lintner, 1878) — en Amérique du Nord.
@@ -580,15 +594,17 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Erynnis a été décrit par le naturaliste allemand Franz von Paula Schrank en 1801[2].
-Son espèce type est Papilio tages Linnaeus, 1758[1].
-Il admet les synonymes suivants[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Erynnis a été décrit par le naturaliste allemand Franz von Paula Schrank en 1801.
+Son espèce type est Papilio tages Linnaeus, 1758.
+Il admet les synonymes suivants :
 Thymele Fabricius, 1807
 Thymale Oken, 1815
 Astycus Hübner, 1822
-Thanaos Boisduval, [1834]
+Thanaos Boisduval, 
 Hallia Tutt, 1906
 Erynnides Burns, 1964
 </t>
